--- a/Empresa Verificadora/CasosEmpVerificadora.xlsx
+++ b/Empresa Verificadora/CasosEmpVerificadora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TestArgos\Empresa Verificadora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\trabajo\PruebasArgos\Empresa Verificadora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BDBDEC-1C16-4993-8788-3CCDBDD846F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B6FA6F-7EDA-4B15-881C-520D9D093225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23340" yWindow="9240" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>N°</t>
   </si>
@@ -100,6 +92,9 @@
   </si>
   <si>
     <t>Casos de prueba empresa verificadora</t>
+  </si>
+  <si>
+    <t>CP_10</t>
   </si>
 </sst>
 </file>
@@ -224,32 +219,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,87 +579,87 @@
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H12"/>
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" customWidth="1"/>
-    <col min="9" max="9" width="28.54296875" customWidth="1"/>
-    <col min="11" max="11" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+    <row r="2" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+    <row r="3" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="8" t="s">
+    <row r="4" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+    <row r="5" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -680,7 +675,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -696,84 +691,84 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="2:15" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
@@ -781,87 +776,87 @@
       <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="7" t="s">
         <v>16</v>
       </c>
@@ -869,11 +864,23 @@
       <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:K16"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I10:I11"/>
@@ -889,18 +896,6 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -934,9 +929,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -944,7 +939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -952,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -960,7 +955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -968,17 +963,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
